--- a/util3/uti3.xlsx
+++ b/util3/uti3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proyectutiles\util3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CADF084D-207E-4847-9FF7-32562A30A15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6064CC-6398-4F2A-A223-AD99131DEA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3902EA94-5BB6-4DD1-8B64-93FAEC49D7AA}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>precio</t>
   </si>
   <si>
-    <t>s/5</t>
-  </si>
-  <si>
     <t>silicona</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>s/4</t>
+  </si>
+  <si>
+    <t>s/9</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,34 +441,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
